--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="87">
   <si>
     <t>Doi</t>
   </si>
@@ -301,6 +301,114 @@
   </si>
   <si>
     <t>[Abrams%D.%coreGivesNoEmail%1,  Antonovsky%A.%coreGivesNoEmail%1,  Bowlby%J.%coreGivesNoEmail%2,  Bowlby%J.%coreGivesNoEmail%0,  Durkheim%\u00c9.%coreGivesNoEmail%1,  Erikson%E. H.%coreGivesNoEmail%1,  Haidt%J.%coreGivesNoEmail%1,  Janoff-Bulman%R.%coreGivesNoEmail%1,  Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,  Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,  Maciej%Caba\u0144ski%coreGivesNoEmail%1,  Seligman%M. E. P.%coreGivesNoEmail%2,  Seligman%M. E. P.%coreGivesNoEmail%0,  Spielberger%C. D.%coreGivesNoEmail%1,  Trzebi\u0144ski%J.%coreGivesNoEmail%1,  Zi\u0119ba%M.%coreGivesNoEmail%2,  Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
+ We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
+Methods
+id="Par2"&gt;Respondents were recruited via social media (WeChat) and completed an online questionnaire.
+ We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
+ We also investigated respondents’ behavior changes.
+ Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
+Results
+id="Par3"&gt;In total, 608 valid questionnaires were obtained.
+ More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
+ Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
+ About 10.1% of respondents suffered from phobia.
+ Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
+ Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
+ At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
+ The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
+Conclusions
+id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
+ Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
+ The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,    Wen-Tao%Luo%NULL%1,    Ying%Li%NULL%1,    Chun-Na%Li%NULL%1,    Zhong-Si%Hong%NULL%1,    Hui-Li%Chen%NULL%1,    Fei%Xiao%NULL%1,    Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
+ We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
+Methods
+Respondents were recruited via social media (WeChat) and completed an online questionnaire.
+ We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
+ We also investigated respondents’ behavior changes.
+ Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
+Results
+id="Par3"&gt;In total, 608 valid questionnaires were obtained.
+ More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
+ Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
+ About 10.1% of respondents suffered from phobia.
+ Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
+ Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
+ At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
+ The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
+Conclusions
+id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
+ Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
+ The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,     Wen-Tao%Luo%NULL%1,     Ying%Li%NULL%1,     Chun-Na%Li%NULL%1,     Zhong-Si%Hong%NULL%1,     Hui-Li%Chen%NULL%1,     Fei%Xiao%NULL%1,     Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
+ We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
+Methods
+Respondents were recruited via social media (WeChat) and completed an online questionnaire.
+ We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
+ We also investigated respondents’ behavior changes.
+ Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
+Results
+In total, 608 valid questionnaires were obtained.
+ More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
+ Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
+ About 10.1% of respondents suffered from phobia.
+ Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
+ Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
+ At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
+ The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
+Conclusions
+id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
+ Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
+ The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,      Wen-Tao%Luo%NULL%1,      Ying%Li%NULL%1,      Chun-Na%Li%NULL%1,      Zhong-Si%Hong%NULL%1,      Hui-Li%Chen%NULL%1,      Fei%Xiao%NULL%1,      Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
+ We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
+Methods
+Respondents were recruited via social media (WeChat) and completed an online questionnaire.
+ We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
+ We also investigated respondents’ behavior changes.
+ Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
+Results
+In total, 608 valid questionnaires were obtained.
+ More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
+ Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
+ About 10.1% of respondents suffered from phobia.
+ Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
+ Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
+ At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
+ The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
+Conclusions
+We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
+ Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
+ The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,       Wen-Tao%Luo%NULL%1,       Ying%Li%NULL%1,       Chun-Na%Li%NULL%1,       Zhong-Si%Hong%NULL%1,       Hui-Li%Chen%NULL%1,       Fei%Xiao%NULL%0,       Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -784,10 +892,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="79">
   <si>
     <t>Doi</t>
   </si>
@@ -301,114 +301,6 @@
   </si>
   <si>
     <t>[Abrams%D.%coreGivesNoEmail%1,  Antonovsky%A.%coreGivesNoEmail%1,  Bowlby%J.%coreGivesNoEmail%2,  Bowlby%J.%coreGivesNoEmail%0,  Durkheim%\u00c9.%coreGivesNoEmail%1,  Erikson%E. H.%coreGivesNoEmail%1,  Haidt%J.%coreGivesNoEmail%1,  Janoff-Bulman%R.%coreGivesNoEmail%1,  Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,  Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,  Maciej%Caba\u0144ski%coreGivesNoEmail%1,  Seligman%M. E. P.%coreGivesNoEmail%2,  Seligman%M. E. P.%coreGivesNoEmail%0,  Spielberger%C. D.%coreGivesNoEmail%1,  Trzebi\u0144ski%J.%coreGivesNoEmail%1,  Zi\u0119ba%M.%coreGivesNoEmail%2,  Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
- We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
-Methods
-id="Par2"&gt;Respondents were recruited via social media (WeChat) and completed an online questionnaire.
- We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
- We also investigated respondents’ behavior changes.
- Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
-Results
-id="Par3"&gt;In total, 608 valid questionnaires were obtained.
- More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
- Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
- About 10.1% of respondents suffered from phobia.
- Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
- Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
- At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
- The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
-Conclusions
-id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
- Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
- The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Liu%NULL%1,    Wen-Tao%Luo%NULL%1,    Ying%Li%NULL%1,    Chun-Na%Li%NULL%1,    Zhong-Si%Hong%NULL%1,    Hui-Li%Chen%NULL%1,    Fei%Xiao%NULL%1,    Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
- We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
-Methods
-Respondents were recruited via social media (WeChat) and completed an online questionnaire.
- We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
- We also investigated respondents’ behavior changes.
- Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
-Results
-id="Par3"&gt;In total, 608 valid questionnaires were obtained.
- More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
- Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
- About 10.1% of respondents suffered from phobia.
- Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
- Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
- At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
- The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
-Conclusions
-id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
- Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
- The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Liu%NULL%1,     Wen-Tao%Luo%NULL%1,     Ying%Li%NULL%1,     Chun-Na%Li%NULL%1,     Zhong-Si%Hong%NULL%1,     Hui-Li%Chen%NULL%1,     Fei%Xiao%NULL%1,     Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
- We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
-Methods
-Respondents were recruited via social media (WeChat) and completed an online questionnaire.
- We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
- We also investigated respondents’ behavior changes.
- Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
-Results
-In total, 608 valid questionnaires were obtained.
- More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
- Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
- About 10.1% of respondents suffered from phobia.
- Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
- Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
- At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
- The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
-Conclusions
-id="Par4"&gt;We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
- Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
- The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Liu%NULL%1,      Wen-Tao%Luo%NULL%1,      Ying%Li%NULL%1,      Chun-Na%Li%NULL%1,      Zhong-Si%Hong%NULL%1,      Hui-Li%Chen%NULL%1,      Fei%Xiao%NULL%1,      Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
- We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
-Methods
-Respondents were recruited via social media (WeChat) and completed an online questionnaire.
- We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
- We also investigated respondents’ behavior changes.
- Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
-Results
-In total, 608 valid questionnaires were obtained.
- More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
- Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
- About 10.1% of respondents suffered from phobia.
- Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
- Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
- At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
- The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
-Conclusions
-We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
- Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
- The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Liu%NULL%1,       Wen-Tao%Luo%NULL%1,       Ying%Li%NULL%1,       Chun-Na%Li%NULL%1,       Zhong-Si%Hong%NULL%1,       Hui-Li%Chen%NULL%1,       Fei%Xiao%NULL%0,       Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -892,10 +784,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -301,6 +301,42 @@
   </si>
   <si>
     <t>[Abrams%D.%coreGivesNoEmail%1,  Antonovsky%A.%coreGivesNoEmail%1,  Bowlby%J.%coreGivesNoEmail%2,  Bowlby%J.%coreGivesNoEmail%0,  Durkheim%\u00c9.%coreGivesNoEmail%1,  Erikson%E. H.%coreGivesNoEmail%1,  Haidt%J.%coreGivesNoEmail%1,  Janoff-Bulman%R.%coreGivesNoEmail%1,  Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,  Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,  Maciej%Caba\u0144ski%coreGivesNoEmail%1,  Seligman%M. E. P.%coreGivesNoEmail%2,  Seligman%M. E. P.%coreGivesNoEmail%0,  Spielberger%C. D.%coreGivesNoEmail%1,  Trzebi\u0144ski%J.%coreGivesNoEmail%1,  Zi\u0119ba%M.%coreGivesNoEmail%2,  Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,    Elena%Sironi%NULL%2,    Elena%Sironi%NULL%0,    Federico%Antonini%NULL%1,    Marco Luigi%Ciceri%NULL%1,    Chiara%Bovo%NULL%2,    Chiara%Bovo%NULL%0,    Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,    Lin Na%Wang%NULL%1,    Juan%Liu%NULL%1,    Shuan Feng%Fang%NULL%1,    Fu Yong%Jiao%NULL%1,    Massimo%Pettoello-Mantovani%NULL%1,    Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,    Li-Gang%Zhang%NULL%0,    Lei-Lei%Wang%NULL%0,    Zhao-Chang%Guo%NULL%0,    Jing-Qi%Wang%NULL%0,    Jin-Cheng%Chen%NULL%0,    Mei%Liu%NULL%0,    Xi%Chen%NULL%0,    Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,    Wen-Tao%Luo%NULL%1,    Ying%Li%NULL%0,    Chun-Na%Li%NULL%1,    Zhong-Si%Hong%NULL%1,    Hui-Li%Chen%NULL%1,    Fei%Xiao%NULL%1,    Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,    Cara A.%Palmer%NULL%2,    Jenna%Wilson%NULL%2,    Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,    Sümeyye%Ulaş%NULL%4,    Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,    Hongxia%Li%lihx@xust.edu.cn%1,    Shuicheng%Tian%tiansc@xust.edu.cn%1,    Jie%Yang%NULL%0,    Jiang%Shao%NULL%1,    Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,   Antonovsky%A.%coreGivesNoEmail%1,   Bowlby%J.%coreGivesNoEmail%2,   Bowlby%J.%coreGivesNoEmail%0,   Durkheim%\u00c9.%coreGivesNoEmail%1,   Erikson%E. H.%coreGivesNoEmail%1,   Haidt%J.%coreGivesNoEmail%1,   Janoff-Bulman%R.%coreGivesNoEmail%1,   Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,   Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,   Maciej%Caba\u0144ski%coreGivesNoEmail%1,   Seligman%M. E. P.%coreGivesNoEmail%2,   Seligman%M. E. P.%coreGivesNoEmail%0,   Spielberger%C. D.%coreGivesNoEmail%1,   Trzebi\u0144ski%J.%coreGivesNoEmail%1,   Zi\u0119ba%M.%coreGivesNoEmail%2,   Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
   </si>
 </sst>
 </file>
@@ -668,6 +704,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -694,6 +733,9 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -709,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -719,6 +761,9 @@
       </c>
       <c r="H3" t="s">
         <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -745,6 +790,9 @@
       </c>
       <c r="H4" t="s">
         <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -771,6 +819,9 @@
       </c>
       <c r="H5" t="s">
         <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -787,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -797,6 +848,9 @@
       </c>
       <c r="H6" t="s">
         <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +867,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -823,6 +877,9 @@
       </c>
       <c r="H7" t="s">
         <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -839,7 +896,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -849,6 +906,9 @@
       </c>
       <c r="H8" t="s">
         <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -865,7 +925,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -875,6 +935,9 @@
       </c>
       <c r="H9" t="s">
         <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -891,16 +954,19 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -928,6 +994,9 @@
       <c r="H11" t="s">
         <v>24</v>
       </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
@@ -954,6 +1023,9 @@
       <c r="H12" t="s">
         <v>24</v>
       </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
@@ -969,7 +1041,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -979,6 +1051,9 @@
       </c>
       <c r="H13" t="s">
         <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="118">
   <si>
     <t>Doi</t>
   </si>
@@ -337,6 +337,87 @@
   </si>
   <si>
     <t>[Abrams%D.%coreGivesNoEmail%1,   Antonovsky%A.%coreGivesNoEmail%1,   Bowlby%J.%coreGivesNoEmail%2,   Bowlby%J.%coreGivesNoEmail%0,   Durkheim%\u00c9.%coreGivesNoEmail%1,   Erikson%E. H.%coreGivesNoEmail%1,   Haidt%J.%coreGivesNoEmail%1,   Janoff-Bulman%R.%coreGivesNoEmail%1,   Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,   Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,   Maciej%Caba\u0144ski%coreGivesNoEmail%1,   Seligman%M. E. P.%coreGivesNoEmail%2,   Seligman%M. E. P.%coreGivesNoEmail%0,   Spielberger%C. D.%coreGivesNoEmail%1,   Trzebi\u0144ski%J.%coreGivesNoEmail%1,   Zi\u0119ba%M.%coreGivesNoEmail%2,   Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,     Elena%Sironi%NULL%2,     Elena%Sironi%NULL%0,     Federico%Antonini%NULL%1,     Marco Luigi%Ciceri%NULL%1,     Chiara%Bovo%NULL%2,     Chiara%Bovo%NULL%0,     Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,     Lin Na%Wang%NULL%1,     Juan%Liu%NULL%1,     Shuan Feng%Fang%NULL%1,     Fu Yong%Jiao%NULL%1,     Massimo%Pettoello-Mantovani%NULL%1,     Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,     Li-Gang%Zhang%NULL%3,     Lei-Lei%Wang%NULL%3,     Zhao-Chang%Guo%NULL%3,     Jing-Qi%Wang%NULL%3,     Jin-Cheng%Chen%NULL%3,     Mei%Liu%NULL%3,     Xi%Chen%NULL%3,     Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,     Wen-Tao%Luo%NULL%1,     Ying%Li%NULL%0,     Chun-Na%Li%NULL%1,     Zhong-Si%Hong%NULL%1,     Hui-Li%Chen%NULL%1,     Fei%Xiao%NULL%1,     Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,     Cara A.%Palmer%NULL%2,     Jenna%Wilson%NULL%2,     Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,     Sümeyye%Ulaş%NULL%4,     Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,     Hongxia%Li%lihx@xust.edu.cn%1,     Shuicheng%Tian%tiansc@xust.edu.cn%1,     Jie%Yang%NULL%0,     Jiang%Shao%NULL%1,     Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,    Antonovsky%A.%coreGivesNoEmail%1,    Bowlby%J.%coreGivesNoEmail%2,    Bowlby%J.%coreGivesNoEmail%0,    Durkheim%\u00c9.%coreGivesNoEmail%1,    Erikson%E. H.%coreGivesNoEmail%1,    Haidt%J.%coreGivesNoEmail%1,    Janoff-Bulman%R.%coreGivesNoEmail%1,    Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,    Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,    Maciej%Caba\u0144ski%coreGivesNoEmail%1,    Seligman%M. E. P.%coreGivesNoEmail%2,    Seligman%M. E. P.%coreGivesNoEmail%0,    Spielberger%C. D.%coreGivesNoEmail%1,    Trzebi\u0144ski%J.%coreGivesNoEmail%1,    Zi\u0119ba%M.%coreGivesNoEmail%2,    Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,     Li-Gang%Zhang%NULL%0,     Lei-Lei%Wang%NULL%0,     Zhao-Chang%Guo%NULL%0,     Jing-Qi%Wang%NULL%0,     Jin-Cheng%Chen%NULL%0,     Mei%Liu%NULL%0,     Xi%Chen%NULL%0,     Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,      Elena%Sironi%NULL%2,      Elena%Sironi%NULL%0,      Federico%Antonini%NULL%1,      Marco Luigi%Ciceri%NULL%1,      Chiara%Bovo%NULL%2,      Chiara%Bovo%NULL%0,      Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,      Lin Na%Wang%NULL%1,      Juan%Liu%NULL%1,      Shuan Feng%Fang%NULL%1,      Fu Yong%Jiao%NULL%1,      Massimo%Pettoello-Mantovani%NULL%1,      Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,      Li-Gang%Zhang%NULL%3,      Lei-Lei%Wang%NULL%3,      Zhao-Chang%Guo%NULL%3,      Jing-Qi%Wang%NULL%3,      Jin-Cheng%Chen%NULL%3,      Mei%Liu%NULL%3,      Xi%Chen%NULL%3,      Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,      Wen-Tao%Luo%NULL%1,      Ying%Li%NULL%0,      Chun-Na%Li%NULL%1,      Zhong-Si%Hong%NULL%1,      Hui-Li%Chen%NULL%1,      Fei%Xiao%NULL%1,      Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,      Cara A.%Palmer%NULL%2,      Jenna%Wilson%NULL%2,      Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,      Sümeyye%Ulaş%NULL%4,      Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,      Hongxia%Li%lihx@xust.edu.cn%1,      Shuicheng%Tian%tiansc@xust.edu.cn%1,      Jie%Yang%NULL%0,      Jiang%Shao%NULL%1,      Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,     Antonovsky%A.%coreGivesNoEmail%1,     Bowlby%J.%coreGivesNoEmail%2,     Bowlby%J.%coreGivesNoEmail%0,     Durkheim%\u00c9.%coreGivesNoEmail%1,     Erikson%E. H.%coreGivesNoEmail%1,     Haidt%J.%coreGivesNoEmail%1,     Janoff-Bulman%R.%coreGivesNoEmail%1,     Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,     Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,     Maciej%Caba\u0144ski%coreGivesNoEmail%1,     Seligman%M. E. P.%coreGivesNoEmail%2,     Seligman%M. E. P.%coreGivesNoEmail%0,     Spielberger%C. D.%coreGivesNoEmail%1,     Trzebi\u0144ski%J.%coreGivesNoEmail%1,     Zi\u0119ba%M.%coreGivesNoEmail%2,     Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,      Li-Gang%Zhang%NULL%0,      Lei-Lei%Wang%NULL%0,      Zhao-Chang%Guo%NULL%0,      Jing-Qi%Wang%NULL%0,      Jin-Cheng%Chen%NULL%0,      Mei%Liu%NULL%0,      Xi%Chen%NULL%0,      Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,       Elena%Sironi%NULL%2,       Elena%Sironi%NULL%0,       Federico%Antonini%NULL%1,       Marco Luigi%Ciceri%NULL%1,       Chiara%Bovo%NULL%2,       Chiara%Bovo%NULL%0,       Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,       Lin Na%Wang%NULL%1,       Juan%Liu%NULL%1,       Shuan Feng%Fang%NULL%1,       Fu Yong%Jiao%NULL%1,       Massimo%Pettoello-Mantovani%NULL%1,       Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,       Li-Gang%Zhang%NULL%3,       Lei-Lei%Wang%NULL%3,       Zhao-Chang%Guo%NULL%3,       Jing-Qi%Wang%NULL%3,       Jin-Cheng%Chen%NULL%3,       Mei%Liu%NULL%3,       Xi%Chen%NULL%3,       Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,       Wen-Tao%Luo%NULL%1,       Ying%Li%NULL%0,       Chun-Na%Li%NULL%1,       Zhong-Si%Hong%NULL%1,       Hui-Li%Chen%NULL%1,       Fei%Xiao%NULL%1,       Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,       Cara A.%Palmer%NULL%2,       Jenna%Wilson%NULL%2,       Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,       Sümeyye%Ulaş%NULL%4,       Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,       Hongxia%Li%lihx@xust.edu.cn%1,       Shuicheng%Tian%tiansc@xust.edu.cn%1,       Jie%Yang%NULL%0,       Jiang%Shao%NULL%1,       Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,      Antonovsky%A.%coreGivesNoEmail%1,      Bowlby%J.%coreGivesNoEmail%2,      Bowlby%J.%coreGivesNoEmail%0,      Durkheim%\u00c9.%coreGivesNoEmail%1,      Erikson%E. H.%coreGivesNoEmail%1,      Haidt%J.%coreGivesNoEmail%1,      Janoff-Bulman%R.%coreGivesNoEmail%1,      Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,      Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,      Maciej%Caba\u0144ski%coreGivesNoEmail%1,      Seligman%M. E. P.%coreGivesNoEmail%2,      Seligman%M. E. P.%coreGivesNoEmail%0,      Spielberger%C. D.%coreGivesNoEmail%1,      Trzebi\u0144ski%J.%coreGivesNoEmail%1,      Zi\u0119ba%M.%coreGivesNoEmail%2,      Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,       Li-Gang%Zhang%NULL%0,       Lei-Lei%Wang%NULL%0,       Zhao-Chang%Guo%NULL%0,       Jing-Qi%Wang%NULL%0,       Jin-Cheng%Chen%NULL%0,       Mei%Liu%NULL%0,       Xi%Chen%NULL%0,       Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -751,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -780,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -809,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -838,7 +919,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -867,7 +948,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -896,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -925,7 +1006,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -954,13 +1035,13 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1041,7 +1122,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="149">
   <si>
     <t>Doi</t>
   </si>
@@ -418,6 +418,99 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,       Li-Gang%Zhang%NULL%0,       Lei-Lei%Wang%NULL%0,       Zhao-Chang%Guo%NULL%0,       Jing-Qi%Wang%NULL%0,       Jin-Cheng%Chen%NULL%0,       Mei%Liu%NULL%0,       Xi%Chen%NULL%0,       Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>"How young patients with cancer perceive the COVID\u201019 (coronavirus) epidemic in Milan, Italy: Is there room for other fears?"</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1, Elena%Pagani Bagliacca%xref no email%1, Matteo%Silva%xref no email%1, Carlo%Patriarca%xref no email%1, Laura%Veneroni%xref no email%1, Carlo Alfredo%Clerici%xref no email%1, Filippo%Spreafico%xref no email%1, Roberto%Luksch%xref no email%1, Monica%Terenziani%xref no email%1, Cristina%Meazza%xref no email%1, Marta%Podda%xref no email%1, Veronica%Biassoni%xref no email%1, Elisabetta%Schiavello%xref no email%1, Stefano%Chiaravalli%xref no email%1, Nadia%Puma%xref no email%1, Luca%Bergamaschi%xref no email%1, Giovanna%Gattuso%xref no email%1, Giovanna%Sironi%xref no email%1, Maura%Massimino%xref no email%1, Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,        Elena%Sironi%NULL%2,        Elena%Sironi%NULL%0,        Federico%Antonini%NULL%1,        Marco Luigi%Ciceri%NULL%1,        Chiara%Bovo%NULL%2,        Chiara%Bovo%NULL%0,        Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,        Lin Na%Wang%NULL%1,        Juan%Liu%NULL%1,        Shuan Feng%Fang%NULL%1,        Fu Yong%Jiao%NULL%1,        Massimo%Pettoello-Mantovani%NULL%1,        Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,        Li-Gang%Zhang%NULL%3,        Lei-Lei%Wang%NULL%3,        Zhao-Chang%Guo%NULL%3,        Jing-Qi%Wang%NULL%3,        Jin-Cheng%Chen%NULL%3,        Mei%Liu%NULL%3,        Xi%Chen%NULL%0,        Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,        Wen-Tao%Luo%NULL%1,        Ying%Li%NULL%0,        Chun-Na%Li%NULL%1,        Zhong-Si%Hong%NULL%1,        Hui-Li%Chen%NULL%1,        Fei%Xiao%NULL%1,        Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,        Cara A.%Palmer%NULL%2,        Jenna%Wilson%NULL%2,        Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,        Sümeyye%Ulaş%NULL%4,        Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,        Hongxia%Li%lihx@xust.edu.cn%1,        Shuicheng%Tian%tiansc@xust.edu.cn%1,        Jie%Yang%NULL%0,        Jiang%Shao%NULL%1,        Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,       Antonovsky%A.%coreGivesNoEmail%1,       Bowlby%J.%coreGivesNoEmail%2,       Bowlby%J.%coreGivesNoEmail%0,       Durkheim%\u00c9.%coreGivesNoEmail%1,       Erikson%E. H.%coreGivesNoEmail%1,       Haidt%J.%coreGivesNoEmail%1,       Janoff-Bulman%R.%coreGivesNoEmail%1,       Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,       Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,       Maciej%Caba\u0144ski%coreGivesNoEmail%1,       Seligman%M. E. P.%coreGivesNoEmail%2,       Seligman%M. E. P.%coreGivesNoEmail%0,       Spielberger%C. D.%coreGivesNoEmail%1,       Trzebi\u0144ski%J.%coreGivesNoEmail%1,       Zi\u0119ba%M.%coreGivesNoEmail%2,       Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>"Opinions from the epicenter: an online survey of university students in Wuhan amidst the COVID-19 outbreak&lt;sup&gt;1&lt;\/sup&gt;"</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1, Peng%Bin%xref no email%1, Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>"Mental Health Status Among Children in Home Confinement During the Coronavirus Disease 2019 Outbreak in Hubei Province, China"</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1, Qi%Xue%xref no email%1, Yu%Zhou%xref no email%1, Kaiheng%Zhu%xref no email%1, Qi%Liu%xref no email%1, Jiajia%Zhang%xref no email%1, Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,        Li-Gang%Zhang%NULL%0,        Lei-Lei%Wang%NULL%0,        Zhao-Chang%Guo%NULL%0,        Jing-Qi%Wang%NULL%0,        Jin-Cheng%Chen%NULL%0,        Mei%Liu%NULL%0,        Xi%Chen%NULL%0,        Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,  Elena%Pagani Bagliacca%xref no email%1,  Matteo%Silva%xref no email%1,  Carlo%Patriarca%xref no email%1,  Laura%Veneroni%xref no email%1,  Carlo Alfredo%Clerici%xref no email%1,  Filippo%Spreafico%xref no email%1,  Roberto%Luksch%xref no email%1,  Monica%Terenziani%xref no email%1,  Cristina%Meazza%xref no email%1,  Marta%Podda%xref no email%1,  Veronica%Biassoni%xref no email%1,  Elisabetta%Schiavello%xref no email%1,  Stefano%Chiaravalli%xref no email%1,  Nadia%Puma%xref no email%1,  Luca%Bergamaschi%xref no email%1,  Giovanna%Gattuso%xref no email%1,  Giovanna%Sironi%xref no email%1,  Maura%Massimino%xref no email%1,  Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,         Elena%Sironi%NULL%2,         Elena%Sironi%NULL%0,         Federico%Antonini%NULL%1,         Marco Luigi%Ciceri%NULL%1,         Chiara%Bovo%NULL%2,         Chiara%Bovo%NULL%0,         Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,         Lin Na%Wang%NULL%1,         Juan%Liu%NULL%1,         Shuan Feng%Fang%NULL%1,         Fu Yong%Jiao%NULL%1,         Massimo%Pettoello-Mantovani%NULL%1,         Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,         Li-Gang%Zhang%NULL%3,         Lei-Lei%Wang%NULL%3,         Zhao-Chang%Guo%NULL%3,         Jing-Qi%Wang%NULL%3,         Jin-Cheng%Chen%NULL%3,         Mei%Liu%NULL%3,         Xi%Chen%NULL%0,         Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,         Wen-Tao%Luo%NULL%1,         Ying%Li%NULL%0,         Chun-Na%Li%NULL%1,         Zhong-Si%Hong%NULL%1,         Hui-Li%Chen%NULL%1,         Fei%Xiao%NULL%1,         Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,         Cara A.%Palmer%NULL%2,         Jenna%Wilson%NULL%2,         Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,         Sümeyye%Ulaş%NULL%4,         Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,         Hongxia%Li%lihx@xust.edu.cn%1,         Shuicheng%Tian%tiansc@xust.edu.cn%1,         Jie%Yang%NULL%0,         Jiang%Shao%NULL%1,         Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,        Antonovsky%A.%coreGivesNoEmail%1,        Bowlby%J.%coreGivesNoEmail%2,        Bowlby%J.%coreGivesNoEmail%0,        Durkheim%\u00c9.%coreGivesNoEmail%1,        Erikson%E. H.%coreGivesNoEmail%1,        Haidt%J.%coreGivesNoEmail%1,        Janoff-Bulman%R.%coreGivesNoEmail%1,        Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,        Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,        Maciej%Caba\u0144ski%coreGivesNoEmail%1,        Seligman%M. E. P.%coreGivesNoEmail%2,        Seligman%M. E. P.%coreGivesNoEmail%0,        Spielberger%C. D.%coreGivesNoEmail%1,        Trzebi\u0144ski%J.%coreGivesNoEmail%1,        Zi\u0119ba%M.%coreGivesNoEmail%2,        Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,  Peng%Bin%xref no email%1,  Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,  Qi%Xue%xref no email%1,  Yu%Zhou%xref no email%1,  Kaiheng%Zhu%xref no email%1,  Qi%Liu%xref no email%1,  Jiajia%Zhang%xref no email%1,  Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,         Li-Gang%Zhang%NULL%0,         Lei-Lei%Wang%NULL%0,         Zhao-Chang%Guo%NULL%0,         Jing-Qi%Wang%NULL%0,         Jin-Cheng%Chen%NULL%0,         Mei%Liu%NULL%0,         Xi%Chen%NULL%0,         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -797,22 +890,22 @@
         <v>43923.0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -832,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -861,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -890,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -919,7 +1012,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -948,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -977,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1006,7 +1099,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1035,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1058,22 +1151,22 @@
         <v>43929.0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -1087,22 +1180,22 @@
         <v>43945.0</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -1122,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -511,6 +511,78 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,         Li-Gang%Zhang%NULL%0,         Lei-Lei%Wang%NULL%0,         Zhao-Chang%Guo%NULL%0,         Jing-Qi%Wang%NULL%0,         Jin-Cheng%Chen%NULL%0,         Mei%Liu%NULL%0,         Xi%Chen%NULL%0,         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,   Elena%Pagani Bagliacca%xref no email%1,   Matteo%Silva%xref no email%1,   Carlo%Patriarca%xref no email%1,   Laura%Veneroni%xref no email%1,   Carlo Alfredo%Clerici%xref no email%1,   Filippo%Spreafico%xref no email%1,   Roberto%Luksch%xref no email%1,   Monica%Terenziani%xref no email%1,   Cristina%Meazza%xref no email%1,   Marta%Podda%xref no email%1,   Veronica%Biassoni%xref no email%1,   Elisabetta%Schiavello%xref no email%1,   Stefano%Chiaravalli%xref no email%1,   Nadia%Puma%xref no email%1,   Luca%Bergamaschi%xref no email%1,   Giovanna%Gattuso%xref no email%1,   Giovanna%Sironi%xref no email%1,   Maura%Massimino%xref no email%1,   Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,          Elena%Sironi%NULL%2,          Elena%Sironi%NULL%0,          Federico%Antonini%NULL%1,          Marco Luigi%Ciceri%NULL%1,          Chiara%Bovo%NULL%2,          Chiara%Bovo%NULL%0,          Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,          Lin Na%Wang%NULL%1,          Juan%Liu%NULL%1,          Shuan Feng%Fang%NULL%1,          Fu Yong%Jiao%NULL%1,          Massimo%Pettoello-Mantovani%NULL%1,          Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,          Li-Gang%Zhang%NULL%3,          Lei-Lei%Wang%NULL%3,          Zhao-Chang%Guo%NULL%3,          Jing-Qi%Wang%NULL%3,          Jin-Cheng%Chen%NULL%3,          Mei%Liu%NULL%3,          Xi%Chen%NULL%0,          Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,          Wen-Tao%Luo%NULL%1,          Ying%Li%NULL%0,          Chun-Na%Li%NULL%1,          Zhong-Si%Hong%NULL%1,          Hui-Li%Chen%NULL%1,          Fei%Xiao%NULL%1,          Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,          Cara A.%Palmer%NULL%2,          Jenna%Wilson%NULL%2,          Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,          Sümeyye%Ulaş%NULL%4,          Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,          Hongxia%Li%lihx@xust.edu.cn%1,          Shuicheng%Tian%tiansc@xust.edu.cn%1,          Jie%Yang%NULL%0,          Jiang%Shao%NULL%1,          Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,         Antonovsky%A.%coreGivesNoEmail%1,         Bowlby%J.%coreGivesNoEmail%2,         Bowlby%J.%coreGivesNoEmail%0,         Durkheim%\u00c9.%coreGivesNoEmail%1,         Erikson%E. H.%coreGivesNoEmail%1,         Haidt%J.%coreGivesNoEmail%1,         Janoff-Bulman%R.%coreGivesNoEmail%1,         Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,         Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,         Maciej%Caba\u0144ski%coreGivesNoEmail%1,         Seligman%M. E. P.%coreGivesNoEmail%2,         Seligman%M. E. P.%coreGivesNoEmail%0,         Spielberger%C. D.%coreGivesNoEmail%1,         Trzebi\u0144ski%J.%coreGivesNoEmail%1,         Zi\u0119ba%M.%coreGivesNoEmail%2,         Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,   Peng%Bin%xref no email%1,   Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,   Qi%Xue%xref no email%1,   Yu%Zhou%xref no email%1,   Kaiheng%Zhu%xref no email%1,   Qi%Liu%xref no email%1,   Jiajia%Zhang%xref no email%1,   Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,          Li-Gang%Zhang%NULL%0,          Lei-Lei%Wang%NULL%0,          Zhao-Chang%Guo%NULL%0,          Jing-Qi%Wang%NULL%0,          Jin-Cheng%Chen%NULL%0,          Mei%Liu%NULL%0,          Xi%Chen%NULL%0,          Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,    Elena%Pagani Bagliacca%xref no email%1,    Matteo%Silva%xref no email%1,    Carlo%Patriarca%xref no email%1,    Laura%Veneroni%xref no email%1,    Carlo Alfredo%Clerici%xref no email%1,    Filippo%Spreafico%xref no email%1,    Roberto%Luksch%xref no email%1,    Monica%Terenziani%xref no email%1,    Cristina%Meazza%xref no email%1,    Marta%Podda%xref no email%1,    Veronica%Biassoni%xref no email%1,    Elisabetta%Schiavello%xref no email%1,    Stefano%Chiaravalli%xref no email%1,    Nadia%Puma%xref no email%1,    Luca%Bergamaschi%xref no email%1,    Giovanna%Gattuso%xref no email%1,    Giovanna%Sironi%xref no email%1,    Maura%Massimino%xref no email%1,    Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,           Elena%Sironi%NULL%2,           Elena%Sironi%NULL%0,           Federico%Antonini%NULL%1,           Marco Luigi%Ciceri%NULL%1,           Chiara%Bovo%NULL%2,           Chiara%Bovo%NULL%0,           Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,           Lin Na%Wang%NULL%1,           Juan%Liu%NULL%1,           Shuan Feng%Fang%NULL%1,           Fu Yong%Jiao%NULL%1,           Massimo%Pettoello-Mantovani%NULL%1,           Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,           Li-Gang%Zhang%NULL%3,           Lei-Lei%Wang%NULL%3,           Zhao-Chang%Guo%NULL%3,           Jing-Qi%Wang%NULL%3,           Jin-Cheng%Chen%NULL%3,           Mei%Liu%NULL%3,           Xi%Chen%NULL%0,           Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,           Wen-Tao%Luo%NULL%1,           Ying%Li%NULL%0,           Chun-Na%Li%NULL%1,           Zhong-Si%Hong%NULL%1,           Hui-Li%Chen%NULL%1,           Fei%Xiao%NULL%1,           Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,           Cara A.%Palmer%NULL%2,           Jenna%Wilson%NULL%2,           Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,           Sümeyye%Ulaş%NULL%4,           Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,           Hongxia%Li%lihx@xust.edu.cn%1,           Shuicheng%Tian%tiansc@xust.edu.cn%1,           Jie%Yang%NULL%0,           Jiang%Shao%NULL%1,           Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,          Antonovsky%A.%coreGivesNoEmail%1,          Bowlby%J.%coreGivesNoEmail%2,          Bowlby%J.%coreGivesNoEmail%0,          Durkheim%\u00c9.%coreGivesNoEmail%1,          Erikson%E. H.%coreGivesNoEmail%1,          Haidt%J.%coreGivesNoEmail%1,          Janoff-Bulman%R.%coreGivesNoEmail%1,          Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,          Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,          Maciej%Caba\u0144ski%coreGivesNoEmail%1,          Seligman%M. E. P.%coreGivesNoEmail%2,          Seligman%M. E. P.%coreGivesNoEmail%0,          Spielberger%C. D.%coreGivesNoEmail%1,          Trzebi\u0144ski%J.%coreGivesNoEmail%1,          Zi\u0119ba%M.%coreGivesNoEmail%2,          Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,    Peng%Bin%xref no email%1,    Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,    Qi%Xue%xref no email%1,    Yu%Zhou%xref no email%1,    Kaiheng%Zhu%xref no email%1,    Qi%Liu%xref no email%1,    Jiajia%Zhang%xref no email%1,    Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,           Li-Gang%Zhang%NULL%0,           Lei-Lei%Wang%NULL%0,           Zhao-Chang%Guo%NULL%0,           Jing-Qi%Wang%NULL%0,           Jin-Cheng%Chen%NULL%0,           Mei%Liu%NULL%0,           Xi%Chen%NULL%0,           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -896,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -925,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -954,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -983,7 +1055,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1012,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1041,7 +1113,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1070,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1099,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1128,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1157,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1186,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1215,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="198">
   <si>
     <t>Doi</t>
   </si>
@@ -583,6 +583,102 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,           Li-Gang%Zhang%NULL%0,           Lei-Lei%Wang%NULL%0,           Zhao-Chang%Guo%NULL%0,           Jing-Qi%Wang%NULL%0,           Jin-Cheng%Chen%NULL%0,           Mei%Liu%NULL%0,           Xi%Chen%NULL%0,           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,     Elena%Pagani Bagliacca%xref no email%1,     Matteo%Silva%xref no email%1,     Carlo%Patriarca%xref no email%1,     Laura%Veneroni%xref no email%1,     Carlo Alfredo%Clerici%xref no email%1,     Filippo%Spreafico%xref no email%1,     Roberto%Luksch%xref no email%1,     Monica%Terenziani%xref no email%1,     Cristina%Meazza%xref no email%1,     Marta%Podda%xref no email%1,     Veronica%Biassoni%xref no email%1,     Elisabetta%Schiavello%xref no email%1,     Stefano%Chiaravalli%xref no email%1,     Nadia%Puma%xref no email%1,     Luca%Bergamaschi%xref no email%1,     Giovanna%Gattuso%xref no email%1,     Giovanna%Sironi%xref no email%1,     Maura%Massimino%xref no email%1,     Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,            Elena%Sironi%NULL%2,            Elena%Sironi%NULL%0,            Federico%Antonini%NULL%1,            Marco Luigi%Ciceri%NULL%1,            Chiara%Bovo%NULL%2,            Chiara%Bovo%NULL%0,            Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,            Lin Na%Wang%NULL%1,            Juan%Liu%NULL%1,            Shuan Feng%Fang%NULL%1,            Fu Yong%Jiao%NULL%1,            Massimo%Pettoello-Mantovani%NULL%1,            Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,            Li-Gang%Zhang%NULL%3,            Lei-Lei%Wang%NULL%3,            Zhao-Chang%Guo%NULL%3,            Jing-Qi%Wang%NULL%3,            Jin-Cheng%Chen%NULL%3,            Mei%Liu%NULL%3,            Xi%Chen%NULL%0,            Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A cluster of pneumonia cases were reported by Wuhan Municipal Health Commission, China in December 2019. A novel coronavirus was eventually identified, and became the COVID-19 epidemic that affected public health and life.
+ We investigated the psychological status and behavior changes of the general public in China from January 30 to February 3, 2020.
+Methods
+Respondents were recruited via social media (WeChat) and completed an online questionnaire.
+ We used the State-Trait Anxiety Inventory, Self-rating Depression Scale, and Symptom Checklist-90 to evaluate psychological status.
+ We also investigated respondents’ behavior changes.
+ Quantitative data were analyzed by t-tests or analysis of variance, and classified data were analyzed with chi-square tests.
+Results
+In total, 608 valid questionnaires were obtained.
+ More respondents had state anxiety than trait anxiety (15.8% vs 4.0%).
+ Depression was found among 27.1% of respondents and 7.7% had psychological abnormalities.
+ About 10.1% of respondents suffered from phobia.
+ Our analysis of the relationship between subgroup characteristics and psychological status showed that age, gender, knowledge about COVID-19, degree of worry about epidemiological infection, and confidence about overcoming the outbreak significantly influenced psychological status.
+ Around 93.3% of respondents avoided going to public places and almost all respondents reduced Spring Festival-related activities.
+ At least 70.9% of respondents chose to take three or more preventive measures to avoid infection.
+ The three most commonly used prevention measures were making fewer trips outside and avoiding contact (98.0%), wearing a mask (83.7%), and hand hygiene (82.4%).
+Conclusions
+We need to pay more attention to public psychological stress, especially among young people, as they are likely to experience anxiety, depression, and psychological abnormalities.
+ Different psychological interventions could be formulated according to the psychological characteristics of different gender and age groups.
+ The majority of respondents followed specific behaviors required by the authorities, but it will take time to observe the effects of these behaviors on the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,            Wen-Tao%Luo%NULL%1,            Ying%Li%NULL%0,            Chun-Na%Li%NULL%1,            Zhong-Si%Hong%NULL%1,            Hui-Li%Chen%NULL%1,            Fei%Xiao%NULL%1,            Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,            Cara A.%Palmer%NULL%2,            Jenna%Wilson%NULL%2,            Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,            Sümeyye%Ulaş%NULL%4,            Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,            Hongxia%Li%lihx@xust.edu.cn%1,            Shuicheng%Tian%tiansc@xust.edu.cn%1,            Jie%Yang%NULL%0,            Jiang%Shao%NULL%1,            Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,           Antonovsky%A.%coreGivesNoEmail%1,           Bowlby%J.%coreGivesNoEmail%2,           Bowlby%J.%coreGivesNoEmail%0,           Durkheim%\u00c9.%coreGivesNoEmail%1,           Erikson%E. H.%coreGivesNoEmail%1,           Haidt%J.%coreGivesNoEmail%1,           Janoff-Bulman%R.%coreGivesNoEmail%1,           Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,           Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,           Maciej%Caba\u0144ski%coreGivesNoEmail%1,           Seligman%M. E. P.%coreGivesNoEmail%2,           Seligman%M. E. P.%coreGivesNoEmail%0,           Spielberger%C. D.%coreGivesNoEmail%1,           Trzebi\u0144ski%J.%coreGivesNoEmail%1,           Zi\u0119ba%M.%coreGivesNoEmail%2,           Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,     Peng%Bin%xref no email%1,     Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,     Qi%Xue%xref no email%1,     Yu%Zhou%xref no email%1,     Kaiheng%Zhu%xref no email%1,     Qi%Liu%xref no email%1,     Jiajia%Zhang%xref no email%1,     Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,            Li-Gang%Zhang%NULL%0,            Lei-Lei%Wang%NULL%0,            Zhao-Chang%Guo%NULL%0,            Jing-Qi%Wang%NULL%0,            Jin-Cheng%Chen%NULL%0,            Mei%Liu%NULL%0,            Xi%Chen%NULL%0,            Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,      Elena%Pagani Bagliacca%xref no email%1,      Matteo%Silva%xref no email%1,      Carlo%Patriarca%xref no email%1,      Laura%Veneroni%xref no email%1,      Carlo Alfredo%Clerici%xref no email%1,      Filippo%Spreafico%xref no email%1,      Roberto%Luksch%xref no email%1,      Monica%Terenziani%xref no email%1,      Cristina%Meazza%xref no email%1,      Marta%Podda%xref no email%1,      Veronica%Biassoni%xref no email%1,      Elisabetta%Schiavello%xref no email%1,      Stefano%Chiaravalli%xref no email%1,      Nadia%Puma%xref no email%1,      Luca%Bergamaschi%xref no email%1,      Giovanna%Gattuso%xref no email%1,      Giovanna%Sironi%xref no email%1,      Maura%Massimino%xref no email%1,      Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,             Elena%Sironi%NULL%2,             Elena%Sironi%NULL%0,             Federico%Antonini%NULL%1,             Marco Luigi%Ciceri%NULL%1,             Chiara%Bovo%NULL%2,             Chiara%Bovo%NULL%0,             Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,             Lin Na%Wang%NULL%1,             Juan%Liu%NULL%1,             Shuan Feng%Fang%NULL%1,             Fu Yong%Jiao%NULL%1,             Massimo%Pettoello-Mantovani%NULL%1,             Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,             Li-Gang%Zhang%NULL%3,             Lei-Lei%Wang%NULL%3,             Zhao-Chang%Guo%NULL%3,             Jing-Qi%Wang%NULL%3,             Jin-Cheng%Chen%NULL%3,             Mei%Liu%NULL%3,             Xi%Chen%NULL%0,             Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,             Wen-Tao%Luo%NULL%1,             Ying%Li%NULL%0,             Chun-Na%Li%NULL%1,             Zhong-Si%Hong%NULL%1,             Hui-Li%Chen%NULL%1,             Fei%Xiao%NULL%1,             Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,             Cara A.%Palmer%NULL%2,             Jenna%Wilson%NULL%2,             Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,             Sümeyye%Ulaş%NULL%4,             Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,             Hongxia%Li%lihx@xust.edu.cn%1,             Shuicheng%Tian%tiansc@xust.edu.cn%1,             Jie%Yang%NULL%0,             Jiang%Shao%NULL%1,             Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,            Antonovsky%A.%coreGivesNoEmail%1,            Bowlby%J.%coreGivesNoEmail%2,            Bowlby%J.%coreGivesNoEmail%0,            Durkheim%\u00c9.%coreGivesNoEmail%1,            Erikson%E. H.%coreGivesNoEmail%1,            Haidt%J.%coreGivesNoEmail%1,            Janoff-Bulman%R.%coreGivesNoEmail%1,            Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,            Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,            Maciej%Caba\u0144ski%coreGivesNoEmail%1,            Seligman%M. E. P.%coreGivesNoEmail%2,            Seligman%M. E. P.%coreGivesNoEmail%0,            Spielberger%C. D.%coreGivesNoEmail%1,            Trzebi\u0144ski%J.%coreGivesNoEmail%1,            Zi\u0119ba%M.%coreGivesNoEmail%2,            Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,      Peng%Bin%xref no email%1,      Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,      Qi%Xue%xref no email%1,      Yu%Zhou%xref no email%1,      Kaiheng%Zhu%xref no email%1,      Qi%Liu%xref no email%1,      Jiajia%Zhang%xref no email%1,      Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,             Li-Gang%Zhang%NULL%0,             Lei-Lei%Wang%NULL%0,             Zhao-Chang%Guo%NULL%0,             Jing-Qi%Wang%NULL%0,             Jin-Cheng%Chen%NULL%0,             Mei%Liu%NULL%0,             Xi%Chen%NULL%0,             Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -997,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1026,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1055,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1081,10 +1177,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1113,7 +1209,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1142,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1171,7 +1267,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1200,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1229,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1258,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1287,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="210">
   <si>
     <t>Doi</t>
   </si>
@@ -679,6 +679,42 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,             Li-Gang%Zhang%NULL%0,             Lei-Lei%Wang%NULL%0,             Zhao-Chang%Guo%NULL%0,             Jing-Qi%Wang%NULL%0,             Jin-Cheng%Chen%NULL%0,             Mei%Liu%NULL%0,             Xi%Chen%NULL%0,             Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,       Elena%Pagani Bagliacca%xref no email%1,       Matteo%Silva%xref no email%1,       Carlo%Patriarca%xref no email%1,       Laura%Veneroni%xref no email%1,       Carlo Alfredo%Clerici%xref no email%1,       Filippo%Spreafico%xref no email%1,       Roberto%Luksch%xref no email%1,       Monica%Terenziani%xref no email%1,       Cristina%Meazza%xref no email%1,       Marta%Podda%xref no email%1,       Veronica%Biassoni%xref no email%1,       Elisabetta%Schiavello%xref no email%1,       Stefano%Chiaravalli%xref no email%1,       Nadia%Puma%xref no email%1,       Luca%Bergamaschi%xref no email%1,       Giovanna%Gattuso%xref no email%1,       Giovanna%Sironi%xref no email%1,       Maura%Massimino%xref no email%1,       Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,              Elena%Sironi%NULL%2,              Elena%Sironi%NULL%0,              Federico%Antonini%NULL%1,              Marco Luigi%Ciceri%NULL%1,              Chiara%Bovo%NULL%2,              Chiara%Bovo%NULL%0,              Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,              Lin Na%Wang%NULL%1,              Juan%Liu%NULL%1,              Shuan Feng%Fang%NULL%1,              Fu Yong%Jiao%NULL%1,              Massimo%Pettoello-Mantovani%NULL%1,              Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,              Li-Gang%Zhang%NULL%3,              Lei-Lei%Wang%NULL%3,              Zhao-Chang%Guo%NULL%3,              Jing-Qi%Wang%NULL%3,              Jin-Cheng%Chen%NULL%3,              Mei%Liu%NULL%3,              Xi%Chen%NULL%0,              Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,              Wen-Tao%Luo%NULL%1,              Ying%Li%NULL%0,              Chun-Na%Li%NULL%1,              Zhong-Si%Hong%NULL%1,              Hui-Li%Chen%NULL%1,              Fei%Xiao%NULL%1,              Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,              Cara A.%Palmer%NULL%2,              Jenna%Wilson%NULL%2,              Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,              Sümeyye%Ulaş%NULL%4,              Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,              Hongxia%Li%lihx@xust.edu.cn%1,              Shuicheng%Tian%tiansc@xust.edu.cn%1,              Jie%Yang%NULL%0,              Jiang%Shao%NULL%1,              Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,             Antonovsky%A.%coreGivesNoEmail%1,             Bowlby%J.%coreGivesNoEmail%2,             Bowlby%J.%coreGivesNoEmail%0,             Durkheim%\u00c9.%coreGivesNoEmail%1,             Erikson%E. H.%coreGivesNoEmail%1,             Haidt%J.%coreGivesNoEmail%1,             Janoff-Bulman%R.%coreGivesNoEmail%1,             Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,             Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,             Maciej%Caba\u0144ski%coreGivesNoEmail%1,             Seligman%M. E. P.%coreGivesNoEmail%2,             Seligman%M. E. P.%coreGivesNoEmail%0,             Spielberger%C. D.%coreGivesNoEmail%1,             Trzebi\u0144ski%J.%coreGivesNoEmail%1,             Zi\u0119ba%M.%coreGivesNoEmail%2,             Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,       Peng%Bin%xref no email%1,       Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,       Qi%Xue%xref no email%1,       Yu%Zhou%xref no email%1,       Kaiheng%Zhu%xref no email%1,       Qi%Liu%xref no email%1,       Jiajia%Zhang%xref no email%1,       Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,              Li-Gang%Zhang%NULL%0,              Lei-Lei%Wang%NULL%0,              Zhao-Chang%Guo%NULL%0,              Jing-Qi%Wang%NULL%0,              Jin-Cheng%Chen%NULL%0,              Mei%Liu%NULL%0,              Xi%Chen%NULL%0,              Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1093,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1122,7 +1158,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1151,7 +1187,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1180,7 +1216,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1209,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1238,7 +1274,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1267,7 +1303,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1296,7 +1332,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1325,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1354,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1383,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="222">
   <si>
     <t>Doi</t>
   </si>
@@ -715,6 +715,42 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,              Li-Gang%Zhang%NULL%0,              Lei-Lei%Wang%NULL%0,              Zhao-Chang%Guo%NULL%0,              Jing-Qi%Wang%NULL%0,              Jin-Cheng%Chen%NULL%0,              Mei%Liu%NULL%0,              Xi%Chen%NULL%0,              Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,        Elena%Pagani Bagliacca%xref no email%1,        Matteo%Silva%xref no email%1,        Carlo%Patriarca%xref no email%1,        Laura%Veneroni%xref no email%1,        Carlo Alfredo%Clerici%xref no email%1,        Filippo%Spreafico%xref no email%1,        Roberto%Luksch%xref no email%1,        Monica%Terenziani%xref no email%1,        Cristina%Meazza%xref no email%1,        Marta%Podda%xref no email%1,        Veronica%Biassoni%xref no email%1,        Elisabetta%Schiavello%xref no email%1,        Stefano%Chiaravalli%xref no email%1,        Nadia%Puma%xref no email%1,        Luca%Bergamaschi%xref no email%1,        Giovanna%Gattuso%xref no email%1,        Giovanna%Sironi%xref no email%1,        Maura%Massimino%xref no email%1,        Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,               Elena%Sironi%NULL%2,               Elena%Sironi%NULL%0,               Federico%Antonini%NULL%1,               Marco Luigi%Ciceri%NULL%1,               Chiara%Bovo%NULL%2,               Chiara%Bovo%NULL%0,               Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,               Lin Na%Wang%NULL%1,               Juan%Liu%NULL%1,               Shuan Feng%Fang%NULL%1,               Fu Yong%Jiao%NULL%1,               Massimo%Pettoello-Mantovani%NULL%1,               Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,               Li-Gang%Zhang%NULL%3,               Lei-Lei%Wang%NULL%3,               Zhao-Chang%Guo%NULL%3,               Jing-Qi%Wang%NULL%3,               Jin-Cheng%Chen%NULL%3,               Mei%Liu%NULL%3,               Xi%Chen%NULL%0,               Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,               Wen-Tao%Luo%NULL%1,               Ying%Li%NULL%0,               Chun-Na%Li%NULL%1,               Zhong-Si%Hong%NULL%1,               Hui-Li%Chen%NULL%1,               Fei%Xiao%NULL%1,               Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,               Cara A.%Palmer%NULL%2,               Jenna%Wilson%NULL%2,               Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,               Sümeyye%Ulaş%NULL%4,               Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,               Hongxia%Li%lihx@xust.edu.cn%1,               Shuicheng%Tian%tiansc@xust.edu.cn%1,               Jie%Yang%NULL%0,               Jiang%Shao%NULL%1,               Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,              Antonovsky%A.%coreGivesNoEmail%1,              Bowlby%J.%coreGivesNoEmail%2,              Bowlby%J.%coreGivesNoEmail%0,              Durkheim%\u00c9.%coreGivesNoEmail%1,              Erikson%E. H.%coreGivesNoEmail%1,              Haidt%J.%coreGivesNoEmail%1,              Janoff-Bulman%R.%coreGivesNoEmail%1,              Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,              Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,              Maciej%Caba\u0144ski%coreGivesNoEmail%1,              Seligman%M. E. P.%coreGivesNoEmail%2,              Seligman%M. E. P.%coreGivesNoEmail%0,              Spielberger%C. D.%coreGivesNoEmail%1,              Trzebi\u0144ski%J.%coreGivesNoEmail%1,              Zi\u0119ba%M.%coreGivesNoEmail%2,              Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,        Peng%Bin%xref no email%1,        Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,        Qi%Xue%xref no email%1,        Yu%Zhou%xref no email%1,        Kaiheng%Zhu%xref no email%1,        Qi%Liu%xref no email%1,        Jiajia%Zhang%xref no email%1,        Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,               Li-Gang%Zhang%NULL%0,               Lei-Lei%Wang%NULL%0,               Zhao-Chang%Guo%NULL%0,               Jing-Qi%Wang%NULL%0,               Jin-Cheng%Chen%NULL%0,               Mei%Liu%NULL%0,               Xi%Chen%NULL%0,               Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1129,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1158,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1187,7 +1223,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1216,7 +1252,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1245,7 +1281,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1274,7 +1310,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1303,7 +1339,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1332,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1361,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1390,7 +1426,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1419,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="246">
   <si>
     <t>Doi</t>
   </si>
@@ -751,6 +751,78 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,               Li-Gang%Zhang%NULL%0,               Lei-Lei%Wang%NULL%0,               Zhao-Chang%Guo%NULL%0,               Jing-Qi%Wang%NULL%0,               Jin-Cheng%Chen%NULL%0,               Mei%Liu%NULL%0,               Xi%Chen%NULL%0,               Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,         Elena%Pagani Bagliacca%xref no email%1,         Matteo%Silva%xref no email%1,         Carlo%Patriarca%xref no email%1,         Laura%Veneroni%xref no email%1,         Carlo Alfredo%Clerici%xref no email%1,         Filippo%Spreafico%xref no email%1,         Roberto%Luksch%xref no email%1,         Monica%Terenziani%xref no email%1,         Cristina%Meazza%xref no email%1,         Marta%Podda%xref no email%1,         Veronica%Biassoni%xref no email%1,         Elisabetta%Schiavello%xref no email%1,         Stefano%Chiaravalli%xref no email%1,         Nadia%Puma%xref no email%1,         Luca%Bergamaschi%xref no email%1,         Giovanna%Gattuso%xref no email%1,         Giovanna%Sironi%xref no email%1,         Maura%Massimino%xref no email%1,         Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                Elena%Sironi%NULL%2,                Elena%Sironi%NULL%0,                Federico%Antonini%NULL%1,                Marco Luigi%Ciceri%NULL%1,                Chiara%Bovo%NULL%2,                Chiara%Bovo%NULL%0,                Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                Lin Na%Wang%NULL%1,                Juan%Liu%NULL%1,                Shuan Feng%Fang%NULL%1,                Fu Yong%Jiao%NULL%1,                Massimo%Pettoello-Mantovani%NULL%1,                Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                Li-Gang%Zhang%NULL%3,                Lei-Lei%Wang%NULL%3,                Zhao-Chang%Guo%NULL%3,                Jing-Qi%Wang%NULL%3,                Jin-Cheng%Chen%NULL%3,                Mei%Liu%NULL%3,                Xi%Chen%NULL%0,                Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                Wen-Tao%Luo%NULL%1,                Ying%Li%NULL%0,                Chun-Na%Li%NULL%1,                Zhong-Si%Hong%NULL%1,                Hui-Li%Chen%NULL%1,                Fei%Xiao%NULL%1,                Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                Cara A.%Palmer%NULL%2,                Jenna%Wilson%NULL%2,                Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                Sümeyye%Ulaş%NULL%4,                Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                Hongxia%Li%lihx@xust.edu.cn%1,                Shuicheng%Tian%tiansc@xust.edu.cn%1,                Jie%Yang%NULL%0,                Jiang%Shao%NULL%1,                Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,               Antonovsky%A.%coreGivesNoEmail%1,               Bowlby%J.%coreGivesNoEmail%2,               Bowlby%J.%coreGivesNoEmail%0,               Durkheim%\u00c9.%coreGivesNoEmail%1,               Erikson%E. H.%coreGivesNoEmail%1,               Haidt%J.%coreGivesNoEmail%1,               Janoff-Bulman%R.%coreGivesNoEmail%1,               Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,               Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,               Maciej%Caba\u0144ski%coreGivesNoEmail%1,               Seligman%M. E. P.%coreGivesNoEmail%2,               Seligman%M. E. P.%coreGivesNoEmail%0,               Spielberger%C. D.%coreGivesNoEmail%1,               Trzebi\u0144ski%J.%coreGivesNoEmail%1,               Zi\u0119ba%M.%coreGivesNoEmail%2,               Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,         Peng%Bin%xref no email%1,         Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,         Qi%Xue%xref no email%1,         Yu%Zhou%xref no email%1,         Kaiheng%Zhu%xref no email%1,         Qi%Liu%xref no email%1,         Jiajia%Zhang%xref no email%1,         Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                Li-Gang%Zhang%NULL%0,                Lei-Lei%Wang%NULL%0,                Zhao-Chang%Guo%NULL%0,                Jing-Qi%Wang%NULL%0,                Jin-Cheng%Chen%NULL%0,                Mei%Liu%NULL%0,                Xi%Chen%NULL%0,                Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,          Elena%Pagani Bagliacca%xref no email%1,          Matteo%Silva%xref no email%1,          Carlo%Patriarca%xref no email%1,          Laura%Veneroni%xref no email%1,          Carlo Alfredo%Clerici%xref no email%1,          Filippo%Spreafico%xref no email%1,          Roberto%Luksch%xref no email%1,          Monica%Terenziani%xref no email%1,          Cristina%Meazza%xref no email%1,          Marta%Podda%xref no email%1,          Veronica%Biassoni%xref no email%1,          Elisabetta%Schiavello%xref no email%1,          Stefano%Chiaravalli%xref no email%1,          Nadia%Puma%xref no email%1,          Luca%Bergamaschi%xref no email%1,          Giovanna%Gattuso%xref no email%1,          Giovanna%Sironi%xref no email%1,          Maura%Massimino%xref no email%1,          Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                 Elena%Sironi%NULL%2,                 Elena%Sironi%NULL%0,                 Federico%Antonini%NULL%1,                 Marco Luigi%Ciceri%NULL%1,                 Chiara%Bovo%NULL%2,                 Chiara%Bovo%NULL%0,                 Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                 Lin Na%Wang%NULL%1,                 Juan%Liu%NULL%1,                 Shuan Feng%Fang%NULL%1,                 Fu Yong%Jiao%NULL%1,                 Massimo%Pettoello-Mantovani%NULL%1,                 Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                 Li-Gang%Zhang%NULL%3,                 Lei-Lei%Wang%NULL%3,                 Zhao-Chang%Guo%NULL%3,                 Jing-Qi%Wang%NULL%3,                 Jin-Cheng%Chen%NULL%3,                 Mei%Liu%NULL%3,                 Xi%Chen%NULL%0,                 Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                 Wen-Tao%Luo%NULL%1,                 Ying%Li%NULL%0,                 Chun-Na%Li%NULL%1,                 Zhong-Si%Hong%NULL%1,                 Hui-Li%Chen%NULL%1,                 Fei%Xiao%NULL%1,                 Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                 Cara A.%Palmer%NULL%2,                 Jenna%Wilson%NULL%2,                 Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                 Sümeyye%Ulaş%NULL%4,                 Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                 Hongxia%Li%lihx@xust.edu.cn%1,                 Shuicheng%Tian%tiansc@xust.edu.cn%1,                 Jie%Yang%NULL%0,                 Jiang%Shao%NULL%1,                 Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                Antonovsky%A.%coreGivesNoEmail%1,                Bowlby%J.%coreGivesNoEmail%2,                Bowlby%J.%coreGivesNoEmail%0,                Durkheim%\u00c9.%coreGivesNoEmail%1,                Erikson%E. H.%coreGivesNoEmail%1,                Haidt%J.%coreGivesNoEmail%1,                Janoff-Bulman%R.%coreGivesNoEmail%1,                Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                Maciej%Caba\u0144ski%coreGivesNoEmail%1,                Seligman%M. E. P.%coreGivesNoEmail%2,                Seligman%M. E. P.%coreGivesNoEmail%0,                Spielberger%C. D.%coreGivesNoEmail%1,                Trzebi\u0144ski%J.%coreGivesNoEmail%1,                Zi\u0119ba%M.%coreGivesNoEmail%2,                Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,          Peng%Bin%xref no email%1,          Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,          Qi%Xue%xref no email%1,          Yu%Zhou%xref no email%1,          Kaiheng%Zhu%xref no email%1,          Qi%Liu%xref no email%1,          Jiajia%Zhang%xref no email%1,          Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                 Li-Gang%Zhang%NULL%0,                 Lei-Lei%Wang%NULL%0,                 Zhao-Chang%Guo%NULL%0,                 Jing-Qi%Wang%NULL%0,                 Jin-Cheng%Chen%NULL%0,                 Mei%Liu%NULL%0,                 Xi%Chen%NULL%0,                 Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1165,7 +1237,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1194,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1223,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1252,7 +1324,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1281,7 +1353,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1310,7 +1382,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1339,7 +1411,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1368,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1397,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1426,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1455,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="258">
   <si>
     <t>Doi</t>
   </si>
@@ -823,6 +823,42 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                 Li-Gang%Zhang%NULL%0,                 Lei-Lei%Wang%NULL%0,                 Zhao-Chang%Guo%NULL%0,                 Jing-Qi%Wang%NULL%0,                 Jin-Cheng%Chen%NULL%0,                 Mei%Liu%NULL%0,                 Xi%Chen%NULL%0,                 Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,           Elena%Pagani Bagliacca%xref no email%1,           Matteo%Silva%xref no email%1,           Carlo%Patriarca%xref no email%1,           Laura%Veneroni%xref no email%1,           Carlo Alfredo%Clerici%xref no email%1,           Filippo%Spreafico%xref no email%1,           Roberto%Luksch%xref no email%1,           Monica%Terenziani%xref no email%1,           Cristina%Meazza%xref no email%1,           Marta%Podda%xref no email%1,           Veronica%Biassoni%xref no email%1,           Elisabetta%Schiavello%xref no email%1,           Stefano%Chiaravalli%xref no email%1,           Nadia%Puma%xref no email%1,           Luca%Bergamaschi%xref no email%1,           Giovanna%Gattuso%xref no email%1,           Giovanna%Sironi%xref no email%1,           Maura%Massimino%xref no email%1,           Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                  Elena%Sironi%NULL%2,                  Elena%Sironi%NULL%0,                  Federico%Antonini%NULL%1,                  Marco Luigi%Ciceri%NULL%1,                  Chiara%Bovo%NULL%2,                  Chiara%Bovo%NULL%0,                  Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                  Lin Na%Wang%NULL%1,                  Juan%Liu%NULL%1,                  Shuan Feng%Fang%NULL%1,                  Fu Yong%Jiao%NULL%1,                  Massimo%Pettoello-Mantovani%NULL%1,                  Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                  Li-Gang%Zhang%NULL%3,                  Lei-Lei%Wang%NULL%3,                  Zhao-Chang%Guo%NULL%3,                  Jing-Qi%Wang%NULL%3,                  Jin-Cheng%Chen%NULL%3,                  Mei%Liu%NULL%3,                  Xi%Chen%NULL%0,                  Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                  Wen-Tao%Luo%NULL%1,                  Ying%Li%NULL%0,                  Chun-Na%Li%NULL%1,                  Zhong-Si%Hong%NULL%1,                  Hui-Li%Chen%NULL%1,                  Fei%Xiao%NULL%1,                  Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                  Cara A.%Palmer%NULL%2,                  Jenna%Wilson%NULL%2,                  Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                  Sümeyye%Ulaş%NULL%4,                  Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                  Hongxia%Li%lihx@xust.edu.cn%1,                  Shuicheng%Tian%tiansc@xust.edu.cn%1,                  Jie%Yang%NULL%0,                  Jiang%Shao%NULL%1,                  Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                 Antonovsky%A.%coreGivesNoEmail%1,                 Bowlby%J.%coreGivesNoEmail%2,                 Bowlby%J.%coreGivesNoEmail%0,                 Durkheim%\u00c9.%coreGivesNoEmail%1,                 Erikson%E. H.%coreGivesNoEmail%1,                 Haidt%J.%coreGivesNoEmail%1,                 Janoff-Bulman%R.%coreGivesNoEmail%1,                 Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                 Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                 Maciej%Caba\u0144ski%coreGivesNoEmail%1,                 Seligman%M. E. P.%coreGivesNoEmail%2,                 Seligman%M. E. P.%coreGivesNoEmail%0,                 Spielberger%C. D.%coreGivesNoEmail%1,                 Trzebi\u0144ski%J.%coreGivesNoEmail%1,                 Zi\u0119ba%M.%coreGivesNoEmail%2,                 Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,           Peng%Bin%xref no email%1,           Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,           Qi%Xue%xref no email%1,           Yu%Zhou%xref no email%1,           Kaiheng%Zhu%xref no email%1,           Qi%Liu%xref no email%1,           Jiajia%Zhang%xref no email%1,           Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                  Li-Gang%Zhang%NULL%0,                  Lei-Lei%Wang%NULL%0,                  Zhao-Chang%Guo%NULL%0,                  Jing-Qi%Wang%NULL%0,                  Jin-Cheng%Chen%NULL%0,                  Mei%Liu%NULL%0,                  Xi%Chen%NULL%0,                  Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1244,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1237,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1266,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1295,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1324,7 +1360,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1353,7 +1389,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1382,7 +1418,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1411,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1440,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1469,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1498,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1527,7 +1563,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -859,6 +859,54 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                  Li-Gang%Zhang%NULL%0,                  Lei-Lei%Wang%NULL%0,                  Zhao-Chang%Guo%NULL%0,                  Jing-Qi%Wang%NULL%0,                  Jin-Cheng%Chen%NULL%0,                  Mei%Liu%NULL%0,                  Xi%Chen%NULL%0,                  Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,            Elena%Pagani Bagliacca%xref no email%1,            Matteo%Silva%xref no email%1,            Carlo%Patriarca%xref no email%1,            Laura%Veneroni%xref no email%1,            Carlo Alfredo%Clerici%xref no email%1,            Filippo%Spreafico%xref no email%1,            Roberto%Luksch%xref no email%1,            Monica%Terenziani%xref no email%1,            Cristina%Meazza%xref no email%1,            Marta%Podda%xref no email%1,            Veronica%Biassoni%xref no email%1,            Elisabetta%Schiavello%xref no email%1,            Stefano%Chiaravalli%xref no email%1,            Nadia%Puma%xref no email%1,            Luca%Bergamaschi%xref no email%1,            Giovanna%Gattuso%xref no email%1,            Giovanna%Sironi%xref no email%1,            Maura%Massimino%xref no email%1,            Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                   Elena%Sironi%NULL%2,                   Elena%Sironi%NULL%0,                   Federico%Antonini%NULL%1,                   Marco Luigi%Ciceri%NULL%1,                   Chiara%Bovo%NULL%2,                   Chiara%Bovo%NULL%0,                   Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                   Lin Na%Wang%NULL%1,                   Juan%Liu%NULL%1,                   Shuan Feng%Fang%NULL%1,                   Fu Yong%Jiao%NULL%1,                   Massimo%Pettoello-Mantovani%NULL%1,                   Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                   Li-Gang%Zhang%NULL%3,                   Lei-Lei%Wang%NULL%3,                   Zhao-Chang%Guo%NULL%3,                   Jing-Qi%Wang%NULL%3,                   Jin-Cheng%Chen%NULL%3,                   Mei%Liu%NULL%3,                   Xi%Chen%NULL%0,                   Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                   Wen-Tao%Luo%NULL%1,                   Ying%Li%NULL%0,                   Chun-Na%Li%NULL%1,                   Zhong-Si%Hong%NULL%1,                   Hui-Li%Chen%NULL%1,                   Fei%Xiao%NULL%1,                   Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                   Cara A.%Palmer%NULL%2,                   Jenna%Wilson%NULL%2,                   Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                   Sümeyye%Ulaş%NULL%4,                   Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                   Hongxia%Li%lihx@xust.edu.cn%1,                   Shuicheng%Tian%tiansc@xust.edu.cn%1,                   Jie%Yang%NULL%0,                   Jiang%Shao%NULL%1,                   Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                  Antonovsky%A.%coreGivesNoEmail%1,                  Bowlby%J.%coreGivesNoEmail%2,                  Bowlby%J.%coreGivesNoEmail%0,                  Durkheim%\u00c9.%coreGivesNoEmail%1,                  Erikson%E. H.%coreGivesNoEmail%1,                  Haidt%J.%coreGivesNoEmail%1,                  Janoff-Bulman%R.%coreGivesNoEmail%1,                  Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                  Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                  Maciej%Caba\u0144ski%coreGivesNoEmail%1,                  Seligman%M. E. P.%coreGivesNoEmail%2,                  Seligman%M. E. P.%coreGivesNoEmail%0,                  Spielberger%C. D.%coreGivesNoEmail%1,                  Trzebi\u0144ski%J.%coreGivesNoEmail%1,                  Zi\u0119ba%M.%coreGivesNoEmail%2,                  Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,            Peng%Bin%xref no email%1,            Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,            Qi%Xue%xref no email%1,            Yu%Zhou%xref no email%1,            Kaiheng%Zhu%xref no email%1,            Qi%Liu%xref no email%1,            Jiajia%Zhang%xref no email%1,            Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                   Li-Gang%Zhang%NULL%0,                   Lei-Lei%Wang%NULL%0,                   Zhao-Chang%Guo%NULL%0,                   Jing-Qi%Wang%NULL%0,                   Jin-Cheng%Chen%NULL%0,                   Mei%Liu%NULL%0,                   Xi%Chen%NULL%0,                   Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1256,7 +1304,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
@@ -1273,7 +1321,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1285,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -1302,7 +1350,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1314,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -1331,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1343,7 +1391,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
@@ -1360,7 +1408,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1372,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
@@ -1389,7 +1437,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1401,7 +1449,7 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1418,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1430,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9">
@@ -1447,7 +1495,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1459,7 +1507,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -1476,7 +1524,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1488,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11">
@@ -1505,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1517,7 +1565,7 @@
         <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1582,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1546,7 +1594,7 @@
         <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
@@ -1563,7 +1611,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1575,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="286">
   <si>
     <t>Doi</t>
   </si>
@@ -907,6 +907,42 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                   Li-Gang%Zhang%NULL%0,                   Lei-Lei%Wang%NULL%0,                   Zhao-Chang%Guo%NULL%0,                   Jing-Qi%Wang%NULL%0,                   Jin-Cheng%Chen%NULL%0,                   Mei%Liu%NULL%0,                   Xi%Chen%NULL%0,                   Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%1,             Elena%Pagani Bagliacca%xref no email%1,             Matteo%Silva%xref no email%1,             Carlo%Patriarca%xref no email%1,             Laura%Veneroni%xref no email%1,             Carlo Alfredo%Clerici%xref no email%1,             Filippo%Spreafico%xref no email%1,             Roberto%Luksch%xref no email%1,             Monica%Terenziani%xref no email%1,             Cristina%Meazza%xref no email%1,             Marta%Podda%xref no email%1,             Veronica%Biassoni%xref no email%1,             Elisabetta%Schiavello%xref no email%1,             Stefano%Chiaravalli%xref no email%1,             Nadia%Puma%xref no email%1,             Luca%Bergamaschi%xref no email%1,             Giovanna%Gattuso%xref no email%1,             Giovanna%Sironi%xref no email%1,             Maura%Massimino%xref no email%1,             Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                    Elena%Sironi%NULL%2,                    Elena%Sironi%NULL%0,                    Federico%Antonini%NULL%1,                    Marco Luigi%Ciceri%NULL%1,                    Chiara%Bovo%NULL%2,                    Chiara%Bovo%NULL%0,                    Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                    Lin Na%Wang%NULL%1,                    Juan%Liu%NULL%1,                    Shuan Feng%Fang%NULL%1,                    Fu Yong%Jiao%NULL%1,                    Massimo%Pettoello-Mantovani%NULL%1,                    Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                    Li-Gang%Zhang%NULL%3,                    Lei-Lei%Wang%NULL%3,                    Zhao-Chang%Guo%NULL%3,                    Jing-Qi%Wang%NULL%3,                    Jin-Cheng%Chen%NULL%3,                    Mei%Liu%NULL%3,                    Xi%Chen%NULL%0,                    Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                    Wen-Tao%Luo%NULL%1,                    Ying%Li%NULL%0,                    Chun-Na%Li%NULL%1,                    Zhong-Si%Hong%NULL%1,                    Hui-Li%Chen%NULL%1,                    Fei%Xiao%NULL%1,                    Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                    Cara A.%Palmer%NULL%2,                    Jenna%Wilson%NULL%2,                    Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                    Sümeyye%Ulaş%NULL%4,                    Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                    Hongxia%Li%lihx@xust.edu.cn%1,                    Shuicheng%Tian%tiansc@xust.edu.cn%1,                    Jie%Yang%NULL%0,                    Jiang%Shao%NULL%1,                    Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                   Antonovsky%A.%coreGivesNoEmail%1,                   Bowlby%J.%coreGivesNoEmail%2,                   Bowlby%J.%coreGivesNoEmail%0,                   Durkheim%\u00c9.%coreGivesNoEmail%1,                   Erikson%E. H.%coreGivesNoEmail%1,                   Haidt%J.%coreGivesNoEmail%1,                   Janoff-Bulman%R.%coreGivesNoEmail%1,                   Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                   Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                   Maciej%Caba\u0144ski%coreGivesNoEmail%1,                   Seligman%M. E. P.%coreGivesNoEmail%2,                   Seligman%M. E. P.%coreGivesNoEmail%0,                   Spielberger%C. D.%coreGivesNoEmail%1,                   Trzebi\u0144ski%J.%coreGivesNoEmail%1,                   Zi\u0119ba%M.%coreGivesNoEmail%2,                   Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%1,             Peng%Bin%xref no email%1,             Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%1,             Qi%Xue%xref no email%1,             Yu%Zhou%xref no email%1,             Kaiheng%Zhu%xref no email%1,             Qi%Liu%xref no email%1,             Jiajia%Zhang%xref no email%1,             Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                    Li-Gang%Zhang%NULL%0,                    Lei-Lei%Wang%NULL%0,                    Zhao-Chang%Guo%NULL%0,                    Jing-Qi%Wang%NULL%0,                    Jin-Cheng%Chen%NULL%0,                    Mei%Liu%NULL%0,                    Xi%Chen%NULL%0,                    Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1321,7 +1357,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1350,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1379,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1408,7 +1444,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1437,7 +1473,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1466,7 +1502,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1495,7 +1531,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1524,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1553,7 +1589,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1582,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1611,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="339">
   <si>
     <t>Doi</t>
   </si>
@@ -943,6 +943,165 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                    Li-Gang%Zhang%NULL%0,                    Lei-Lei%Wang%NULL%0,                    Zhao-Chang%Guo%NULL%0,                    Jing-Qi%Wang%NULL%0,                    Jin-Cheng%Chen%NULL%0,                    Mei%Liu%NULL%0,                    Xi%Chen%NULL%0,                    Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Michela%Casanova%xref no email%0, Elena%Pagani Bagliacca%xref no email%1, Matteo%Silva%xref no email%1, Carlo%Patriarca%xref no email%1, Laura%Veneroni%xref no email%1, Carlo Alfredo%Clerici%xref no email%1, Filippo%Spreafico%xref no email%1, Roberto%Luksch%xref no email%1, Monica%Terenziani%xref no email%1, Cristina%Meazza%xref no email%1, Marta%Podda%xref no email%1, Veronica%Biassoni%xref no email%1, Elisabetta%Schiavello%xref no email%1, Stefano%Chiaravalli%xref no email%1, Nadia%Puma%xref no email%1, Luca%Bergamaschi%xref no email%1, Giovanna%Gattuso%xref no email%1, Giovanna%Sironi%xref no email%1, Maura%Massimino%xref no email%1, Andrea%Ferrari%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                     Elena%Sironi%NULL%2,                     Elena%Sironi%NULL%0,                     Federico%Antonini%NULL%1,                     Marco Luigi%Ciceri%NULL%1,                     Chiara%Bovo%NULL%2,                     Chiara%Bovo%NULL%0,                     Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                     Lin Na%Wang%NULL%1,                     Juan%Liu%NULL%1,                     Shuan Feng%Fang%NULL%1,                     Fu Yong%Jiao%NULL%1,                     Massimo%Pettoello-Mantovani%NULL%1,                     Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                     Li-Gang%Zhang%NULL%3,                     Lei-Lei%Wang%NULL%3,                     Zhao-Chang%Guo%NULL%3,                     Jing-Qi%Wang%NULL%3,                     Jin-Cheng%Chen%NULL%3,                     Mei%Liu%NULL%3,                     Xi%Chen%NULL%0,                     Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                     Wen-Tao%Luo%NULL%1,                     Ying%Li%NULL%0,                     Chun-Na%Li%NULL%1,                     Zhong-Si%Hong%NULL%1,                     Hui-Li%Chen%NULL%1,                     Fei%Xiao%NULL%1,                     Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                     Cara A.%Palmer%NULL%2,                     Jenna%Wilson%NULL%2,                     Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                     Sümeyye%Ulaş%NULL%4,                     Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                     Hongxia%Li%lihx@xust.edu.cn%1,                     Shuicheng%Tian%tiansc@xust.edu.cn%1,                     Jie%Yang%NULL%0,                     Jiang%Shao%NULL%1,                     Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                    Antonovsky%A.%coreGivesNoEmail%1,                    Bowlby%J.%coreGivesNoEmail%2,                    Bowlby%J.%coreGivesNoEmail%0,                    Durkheim%\u00c9.%coreGivesNoEmail%1,                    Erikson%E. H.%coreGivesNoEmail%1,                    Haidt%J.%coreGivesNoEmail%1,                    Janoff-Bulman%R.%coreGivesNoEmail%1,                    Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                    Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                    Maciej%Caba\u0144ski%coreGivesNoEmail%1,                    Seligman%M. E. P.%coreGivesNoEmail%2,                    Seligman%M. E. P.%coreGivesNoEmail%0,                    Spielberger%C. D.%coreGivesNoEmail%1,                    Trzebi\u0144ski%J.%coreGivesNoEmail%1,                    Zi\u0119ba%M.%coreGivesNoEmail%2,                    Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Yang%xref no email%0, Peng%Bin%xref no email%1, Alex Jingwei%He%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Xinyan%Xie%xref no email%0, Qi%Xue%xref no email%1, Yu%Zhou%xref no email%1, Kaiheng%Zhu%xref no email%1, Qi%Liu%xref no email%1, Jiajia%Zhang%xref no email%1, Ranran%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                     Li-Gang%Zhang%NULL%0,                     Lei-Lei%Wang%NULL%0,                     Zhao-Chang%Guo%NULL%0,                     Jing-Qi%Wang%NULL%0,                     Jin-Cheng%Chen%NULL%0,                     Mei%Liu%NULL%0,                     Xi%Chen%NULL%0,                     Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                      Elena%Sironi%NULL%2,                      Elena%Sironi%NULL%0,                      Federico%Antonini%NULL%1,                      Marco Luigi%Ciceri%NULL%1,                      Chiara%Bovo%NULL%2,                      Chiara%Bovo%NULL%0,                      Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                      Lin Na%Wang%NULL%1,                      Juan%Liu%NULL%1,                      Shuan Feng%Fang%NULL%1,                      Fu Yong%Jiao%NULL%1,                      Massimo%Pettoello-Mantovani%NULL%1,                      Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                      Li-Gang%Zhang%NULL%3,                      Lei-Lei%Wang%NULL%3,                      Zhao-Chang%Guo%NULL%3,                      Jing-Qi%Wang%NULL%3,                      Jin-Cheng%Chen%NULL%3,                      Mei%Liu%NULL%3,                      Xi%Chen%NULL%0,                      Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                      Wen-Tao%Luo%NULL%1,                      Ying%Li%NULL%0,                      Chun-Na%Li%NULL%1,                      Zhong-Si%Hong%NULL%1,                      Hui-Li%Chen%NULL%1,                      Fei%Xiao%NULL%1,                      Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                      Cara A.%Palmer%NULL%2,                      Jenna%Wilson%NULL%2,                      Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                      Sümeyye%Ulaş%NULL%4,                      Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                      Hongxia%Li%lihx@xust.edu.cn%1,                      Shuicheng%Tian%tiansc@xust.edu.cn%1,                      Jie%Yang%NULL%0,                      Jiang%Shao%NULL%1,                      Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                     Antonovsky%A.%coreGivesNoEmail%1,                     Bowlby%J.%coreGivesNoEmail%2,                     Bowlby%J.%coreGivesNoEmail%0,                     Durkheim%\u00c9.%coreGivesNoEmail%1,                     Erikson%E. H.%coreGivesNoEmail%1,                     Haidt%J.%coreGivesNoEmail%1,                     Janoff-Bulman%R.%coreGivesNoEmail%1,                     Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                     Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                     Maciej%Caba\u0144ski%coreGivesNoEmail%1,                     Seligman%M. E. P.%coreGivesNoEmail%2,                     Seligman%M. E. P.%coreGivesNoEmail%0,                     Spielberger%C. D.%coreGivesNoEmail%1,                     Trzebi\u0144ski%J.%coreGivesNoEmail%1,                     Zi\u0119ba%M.%coreGivesNoEmail%2,                     Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                      Li-Gang%Zhang%NULL%0,                      Lei-Lei%Wang%NULL%0,                      Zhao-Chang%Guo%NULL%0,                      Jing-Qi%Wang%NULL%0,                      Jin-Cheng%Chen%NULL%0,                      Mei%Liu%NULL%0,                      Xi%Chen%NULL%0,                      Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                       Elena%Sironi%NULL%2,                       Elena%Sironi%NULL%0,                       Federico%Antonini%NULL%1,                       Marco Luigi%Ciceri%NULL%1,                       Chiara%Bovo%NULL%2,                       Chiara%Bovo%NULL%0,                       Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                       Lin Na%Wang%NULL%1,                       Juan%Liu%NULL%1,                       Shuan Feng%Fang%NULL%1,                       Fu Yong%Jiao%NULL%1,                       Massimo%Pettoello-Mantovani%NULL%1,                       Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                       Li-Gang%Zhang%NULL%3,                       Lei-Lei%Wang%NULL%3,                       Zhao-Chang%Guo%NULL%3,                       Jing-Qi%Wang%NULL%3,                       Jin-Cheng%Chen%NULL%3,                       Mei%Liu%NULL%3,                       Xi%Chen%NULL%0,                       Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                       Wen-Tao%Luo%NULL%1,                       Ying%Li%NULL%0,                       Chun-Na%Li%NULL%1,                       Zhong-Si%Hong%NULL%1,                       Hui-Li%Chen%NULL%1,                       Fei%Xiao%NULL%1,                       Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                       Cara A.%Palmer%NULL%2,                       Jenna%Wilson%NULL%2,                       Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                       Sümeyye%Ulaş%NULL%4,                       Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                       Hongxia%Li%lihx@xust.edu.cn%1,                       Shuicheng%Tian%tiansc@xust.edu.cn%1,                       Jie%Yang%NULL%0,                       Jiang%Shao%NULL%1,                       Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                      Antonovsky%A.%coreGivesNoEmail%1,                      Bowlby%J.%coreGivesNoEmail%2,                      Bowlby%J.%coreGivesNoEmail%0,                      Durkheim%\u00c9.%coreGivesNoEmail%1,                      Erikson%E. H.%coreGivesNoEmail%1,                      Haidt%J.%coreGivesNoEmail%1,                      Janoff-Bulman%R.%coreGivesNoEmail%1,                      Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                      Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                      Maciej%Caba\u0144ski%coreGivesNoEmail%1,                      Seligman%M. E. P.%coreGivesNoEmail%2,                      Seligman%M. E. P.%coreGivesNoEmail%0,                      Spielberger%C. D.%coreGivesNoEmail%1,                      Trzebi\u0144ski%J.%coreGivesNoEmail%1,                      Zi\u0119ba%M.%coreGivesNoEmail%2,                      Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                       Li-Gang%Zhang%NULL%0,                       Lei-Lei%Wang%NULL%0,                       Zhao-Chang%Guo%NULL%0,                       Jing-Qi%Wang%NULL%0,                       Jin-Cheng%Chen%NULL%0,                       Mei%Liu%NULL%0,                       Xi%Chen%NULL%0,                       Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                        Elena%Sironi%NULL%2,                        Elena%Sironi%NULL%0,                        Federico%Antonini%NULL%1,                        Marco Luigi%Ciceri%NULL%1,                        Chiara%Bovo%NULL%2,                        Chiara%Bovo%NULL%0,                        Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                        Lin Na%Wang%NULL%1,                        Juan%Liu%NULL%1,                        Shuan Feng%Fang%NULL%1,                        Fu Yong%Jiao%NULL%1,                        Massimo%Pettoello-Mantovani%NULL%1,                        Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                        Li-Gang%Zhang%NULL%3,                        Lei-Lei%Wang%NULL%3,                        Zhao-Chang%Guo%NULL%3,                        Jing-Qi%Wang%NULL%3,                        Jin-Cheng%Chen%NULL%3,                        Mei%Liu%NULL%3,                        Xi%Chen%NULL%0,                        Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                        Wen-Tao%Luo%NULL%1,                        Ying%Li%NULL%0,                        Chun-Na%Li%NULL%1,                        Zhong-Si%Hong%NULL%1,                        Hui-Li%Chen%NULL%1,                        Fei%Xiao%NULL%1,                        Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                        Cara A.%Palmer%NULL%2,                        Jenna%Wilson%NULL%2,                        Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                        Sümeyye%Ulaş%NULL%4,                        Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                        Hongxia%Li%lihx@xust.edu.cn%1,                        Shuicheng%Tian%tiansc@xust.edu.cn%1,                        Jie%Yang%NULL%0,                        Jiang%Shao%NULL%1,                        Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                       Antonovsky%A.%coreGivesNoEmail%1,                       Bowlby%J.%coreGivesNoEmail%2,                       Bowlby%J.%coreGivesNoEmail%0,                       Durkheim%\u00c9.%coreGivesNoEmail%1,                       Erikson%E. H.%coreGivesNoEmail%1,                       Haidt%J.%coreGivesNoEmail%1,                       Janoff-Bulman%R.%coreGivesNoEmail%1,                       Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                       Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                       Maciej%Caba\u0144ski%coreGivesNoEmail%1,                       Seligman%M. E. P.%coreGivesNoEmail%2,                       Seligman%M. E. P.%coreGivesNoEmail%0,                       Spielberger%C. D.%coreGivesNoEmail%1,                       Trzebi\u0144ski%J.%coreGivesNoEmail%1,                       Zi\u0119ba%M.%coreGivesNoEmail%2,                       Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                        Li-Gang%Zhang%NULL%0,                        Lei-Lei%Wang%NULL%0,                        Zhao-Chang%Guo%NULL%0,                        Jing-Qi%Wang%NULL%0,                        Jin-Cheng%Chen%NULL%0,                        Mei%Liu%NULL%0,                        Xi%Chen%NULL%0,                        Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                         Elena%Sironi%NULL%2,                         Elena%Sironi%NULL%0,                         Federico%Antonini%NULL%1,                         Marco Luigi%Ciceri%NULL%1,                         Chiara%Bovo%NULL%2,                         Chiara%Bovo%NULL%0,                         Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                         Lin Na%Wang%NULL%1,                         Juan%Liu%NULL%1,                         Shuan Feng%Fang%NULL%1,                         Fu Yong%Jiao%NULL%1,                         Massimo%Pettoello-Mantovani%NULL%1,                         Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                         Li-Gang%Zhang%NULL%3,                         Lei-Lei%Wang%NULL%3,                         Zhao-Chang%Guo%NULL%3,                         Jing-Qi%Wang%NULL%3,                         Jin-Cheng%Chen%NULL%3,                         Mei%Liu%NULL%3,                         Xi%Chen%NULL%0,                         Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                         Wen-Tao%Luo%NULL%1,                         Ying%Li%NULL%0,                         Chun-Na%Li%NULL%1,                         Zhong-Si%Hong%NULL%1,                         Hui-Li%Chen%NULL%1,                         Fei%Xiao%NULL%1,                         Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                         Cara A.%Palmer%NULL%2,                         Jenna%Wilson%NULL%2,                         Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                         Sümeyye%Ulaş%NULL%4,                         Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                         Hongxia%Li%lihx@xust.edu.cn%1,                         Shuicheng%Tian%tiansc@xust.edu.cn%1,                         Jie%Yang%NULL%0,                         Jiang%Shao%NULL%1,                         Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                        Antonovsky%A.%coreGivesNoEmail%1,                        Bowlby%J.%coreGivesNoEmail%2,                        Bowlby%J.%coreGivesNoEmail%0,                        Durkheim%\u00c9.%coreGivesNoEmail%1,                        Erikson%E. H.%coreGivesNoEmail%1,                        Haidt%J.%coreGivesNoEmail%1,                        Janoff-Bulman%R.%coreGivesNoEmail%1,                        Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                        Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                        Maciej%Caba\u0144ski%coreGivesNoEmail%1,                        Seligman%M. E. P.%coreGivesNoEmail%2,                        Seligman%M. E. P.%coreGivesNoEmail%0,                        Spielberger%C. D.%coreGivesNoEmail%1,                        Trzebi\u0144ski%J.%coreGivesNoEmail%1,                        Zi\u0119ba%M.%coreGivesNoEmail%2,                        Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                         Li-Gang%Zhang%NULL%0,                         Lei-Lei%Wang%NULL%0,                         Zhao-Chang%Guo%NULL%0,                         Jing-Qi%Wang%NULL%0,                         Jin-Cheng%Chen%NULL%0,                         Mei%Liu%NULL%0,                         Xi%Chen%NULL%0,                         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1313,6 +1472,9 @@
       <c r="I1" t="s">
         <v>79</v>
       </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1328,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1340,7 +1502,10 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3">
@@ -1357,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1370,6 +1535,9 @@
       </c>
       <c r="I3" t="s">
         <v>261</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1386,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1399,6 +1567,9 @@
       </c>
       <c r="I4" t="s">
         <v>263</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1415,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1428,6 +1599,9 @@
       </c>
       <c r="I5" t="s">
         <v>265</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1444,7 +1618,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1457,6 +1631,9 @@
       </c>
       <c r="I6" t="s">
         <v>265</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1473,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1486,6 +1663,9 @@
       </c>
       <c r="I7" t="s">
         <v>263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1502,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1515,6 +1695,9 @@
       </c>
       <c r="I8" t="s">
         <v>265</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1531,7 +1714,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1544,6 +1727,9 @@
       </c>
       <c r="I9" t="s">
         <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1560,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1573,6 +1759,9 @@
       </c>
       <c r="I10" t="s">
         <v>259</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1589,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1601,7 +1790,10 @@
         <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12">
@@ -1618,7 +1810,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1627,10 +1819,13 @@
         <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="13">
@@ -1647,7 +1842,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1660,6 +1855,9 @@
       </c>
       <c r="I13" t="s">
         <v>265</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/91.xlsx
+++ b/Covid_19_Dataset_and_References/References/91.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="357">
   <si>
     <t>Doi</t>
   </si>
@@ -1102,6 +1102,60 @@
   </si>
   <si>
     <t>[Shuang-Jiang%Zhou%NULL%0,                         Li-Gang%Zhang%NULL%0,                         Lei-Lei%Wang%NULL%0,                         Zhao-Chang%Guo%NULL%0,                         Jing-Qi%Wang%NULL%0,                         Jin-Cheng%Chen%NULL%0,                         Mei%Liu%NULL%0,                         Xi%Chen%NULL%0,                         Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                          Elena%Sironi%NULL%2,                          Elena%Sironi%NULL%0,                          Federico%Antonini%NULL%1,                          Marco Luigi%Ciceri%NULL%1,                          Chiara%Bovo%NULL%2,                          Chiara%Bovo%NULL%0,                          Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                          Lin Na%Wang%NULL%1,                          Juan%Liu%NULL%1,                          Shuan Feng%Fang%NULL%1,                          Fu Yong%Jiao%NULL%1,                          Massimo%Pettoello-Mantovani%NULL%1,                          Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                          Li-Gang%Zhang%NULL%3,                          Lei-Lei%Wang%NULL%3,                          Zhao-Chang%Guo%NULL%3,                          Jing-Qi%Wang%NULL%3,                          Jin-Cheng%Chen%NULL%3,                          Mei%Liu%NULL%3,                          Xi%Chen%NULL%0,                          Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                          Wen-Tao%Luo%NULL%1,                          Ying%Li%NULL%0,                          Chun-Na%Li%NULL%1,                          Zhong-Si%Hong%NULL%1,                          Hui-Li%Chen%NULL%1,                          Fei%Xiao%NULL%1,                          Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                          Cara A.%Palmer%NULL%2,                          Jenna%Wilson%NULL%2,                          Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                          Sümeyye%Ulaş%NULL%4,                          Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                          Hongxia%Li%lihx@xust.edu.cn%1,                          Shuicheng%Tian%tiansc@xust.edu.cn%1,                          Jie%Yang%NULL%0,                          Jiang%Shao%NULL%1,                          Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                         Antonovsky%A.%coreGivesNoEmail%1,                         Bowlby%J.%coreGivesNoEmail%2,                         Bowlby%J.%coreGivesNoEmail%0,                         Durkheim%\u00c9.%coreGivesNoEmail%1,                         Erikson%E. H.%coreGivesNoEmail%1,                         Haidt%J.%coreGivesNoEmail%1,                         Janoff-Bulman%R.%coreGivesNoEmail%1,                         Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                         Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                         Maciej%Caba\u0144ski%coreGivesNoEmail%1,                         Seligman%M. E. P.%coreGivesNoEmail%2,                         Seligman%M. E. P.%coreGivesNoEmail%0,                         Spielberger%C. D.%coreGivesNoEmail%1,                         Trzebi\u0144ski%J.%coreGivesNoEmail%1,                         Zi\u0119ba%M.%coreGivesNoEmail%2,                         Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                          Li-Gang%Zhang%NULL%0,                          Lei-Lei%Wang%NULL%0,                          Zhao-Chang%Guo%NULL%0,                          Jing-Qi%Wang%NULL%0,                          Jin-Cheng%Chen%NULL%0,                          Mei%Liu%NULL%0,                          Xi%Chen%NULL%0,                          Jing-Xu%Chen%chenjx1110@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Marco%Colizzi%NULL%1,                           Elena%Sironi%NULL%2,                           Elena%Sironi%NULL%0,                           Federico%Antonini%NULL%1,                           Marco Luigi%Ciceri%NULL%1,                           Chiara%Bovo%NULL%2,                           Chiara%Bovo%NULL%0,                           Leonardo%Zoccante%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen Yan%Jiao%NULL%1,                           Lin Na%Wang%NULL%1,                           Juan%Liu%NULL%1,                           Shuan Feng%Fang%NULL%1,                           Fu Yong%Jiao%NULL%1,                           Massimo%Pettoello-Mantovani%NULL%1,                           Eli%Somekh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                           Li-Gang%Zhang%NULL%3,                           Lei-Lei%Wang%NULL%3,                           Zhao-Chang%Guo%NULL%3,                           Jing-Qi%Wang%NULL%3,                           Jin-Cheng%Chen%NULL%3,                           Mei%Liu%NULL%3,                           Xi%Chen%NULL%0,                           Jing-Xu%Chen%chenjx1110@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Liu%NULL%1,                           Wen-Tao%Luo%NULL%1,                           Ying%Li%NULL%0,                           Chun-Na%Li%NULL%1,                           Zhong-Si%Hong%NULL%1,                           Hui-Li%Chen%NULL%1,                           Fei%Xiao%NULL%1,                           Jin-Yu%Xia%xiajinyu@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin%Oosterhoff%Benjamin.oosterhoff@montana.edu%2,                           Cara A.%Palmer%NULL%2,                           Jenna%Wilson%NULL%2,                           Natalie%Shook%NULL%2]</t>
+  </si>
+  <si>
+    <t>[İsmail%Seçer%ismailsecer84@gmail.com%2,                           Sümeyye%Ulaş%NULL%4,                           Sümeyye%Ulaş%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fangyuan%Tian%NULL%1,                           Hongxia%Li%lihx@xust.edu.cn%1,                           Shuicheng%Tian%tiansc@xust.edu.cn%1,                           Jie%Yang%NULL%0,                           Jiang%Shao%NULL%1,                           Chenning%Tian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abrams%D.%coreGivesNoEmail%1,                          Antonovsky%A.%coreGivesNoEmail%1,                          Bowlby%J.%coreGivesNoEmail%2,                          Bowlby%J.%coreGivesNoEmail%0,                          Durkheim%\u00c9.%coreGivesNoEmail%1,                          Erikson%E. H.%coreGivesNoEmail%1,                          Haidt%J.%coreGivesNoEmail%1,                          Janoff-Bulman%R.%coreGivesNoEmail%1,                          Jerzy%Trzebi\u0144ski%coreGivesNoEmail%1,                          Jolanta%Zuzanna Czarnecka%coreGivesNoEmail%1,                          Maciej%Caba\u0144ski%coreGivesNoEmail%1,                          Seligman%M. E. P.%coreGivesNoEmail%2,                          Seligman%M. E. P.%coreGivesNoEmail%0,                          Spielberger%C. D.%coreGivesNoEmail%1,                          Trzebi\u0144ski%J.%coreGivesNoEmail%1,                          Zi\u0119ba%M.%coreGivesNoEmail%2,                          Zi\u0119ba%M.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0,                           Li-Gang%Zhang%NULL%0,                           Lei-Lei%Wang%NULL%0,                           Zhao-Chang%Guo%NULL%0,                           Jing-Qi%Wang%NULL%0,                           Jin-Cheng%Chen%NULL%0,                           Mei%Liu%NULL%0,                           Xi%Chen%NULL%0,                           Jing-Xu%Chen%chenjx1110@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1522,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1554,7 +1608,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1586,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1618,7 +1672,7 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
@@ -1650,7 +1704,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1682,7 +1736,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1714,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1746,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1778,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1810,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1842,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
